--- a/src/main/resources/file/1-64_updated.xlsx
+++ b/src/main/resources/file/1-64_updated.xlsx
@@ -25,24 +25,393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
   <si>
     <t>Sportsmen</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test1</t>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 65</t>
+  </si>
+  <si>
+    <t>test 66</t>
+  </si>
+  <si>
+    <t>test 33</t>
+  </si>
+  <si>
+    <t>test 34</t>
+  </si>
+  <si>
+    <t>test 97</t>
+  </si>
+  <si>
+    <t>test 98</t>
+  </si>
+  <si>
+    <t>test 17</t>
+  </si>
+  <si>
+    <t>test 18</t>
+  </si>
+  <si>
+    <t>test 81</t>
+  </si>
+  <si>
+    <t>test 82</t>
+  </si>
+  <si>
+    <t>test 49</t>
+  </si>
+  <si>
+    <t>test 50</t>
+  </si>
+  <si>
+    <t>test 113</t>
+  </si>
+  <si>
+    <t>test 114</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>test 10</t>
+  </si>
+  <si>
+    <t>test 73</t>
+  </si>
+  <si>
+    <t>test 74</t>
+  </si>
+  <si>
+    <t>test 41</t>
+  </si>
+  <si>
+    <t>test 42</t>
+  </si>
+  <si>
+    <t>test 105</t>
+  </si>
+  <si>
+    <t>test 106</t>
+  </si>
+  <si>
+    <t>test 25</t>
+  </si>
+  <si>
+    <t>test 26</t>
+  </si>
+  <si>
+    <t>test 89</t>
+  </si>
+  <si>
+    <t>test 90</t>
+  </si>
+  <si>
+    <t>test 57</t>
+  </si>
+  <si>
+    <t>test 58</t>
+  </si>
+  <si>
+    <t>test 121</t>
+  </si>
+  <si>
+    <t>test 122</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>test 6</t>
+  </si>
+  <si>
+    <t>test 69</t>
+  </si>
+  <si>
+    <t>test 70</t>
+  </si>
+  <si>
+    <t>test 37</t>
+  </si>
+  <si>
+    <t>test 38</t>
+  </si>
+  <si>
+    <t>test 101</t>
+  </si>
+  <si>
+    <t>test 102</t>
+  </si>
+  <si>
+    <t>test 21</t>
+  </si>
+  <si>
+    <t>test 22</t>
+  </si>
+  <si>
+    <t>test 85</t>
+  </si>
+  <si>
+    <t>test 86</t>
+  </si>
+  <si>
+    <t>test 53</t>
+  </si>
+  <si>
+    <t>test 54</t>
+  </si>
+  <si>
+    <t>test 117</t>
+  </si>
+  <si>
+    <t>test 118</t>
+  </si>
+  <si>
+    <t>test 13</t>
+  </si>
+  <si>
+    <t>test 14</t>
+  </si>
+  <si>
+    <t>test 77</t>
+  </si>
+  <si>
+    <t>test 78</t>
+  </si>
+  <si>
+    <t>test 45</t>
+  </si>
+  <si>
+    <t>test 46</t>
+  </si>
+  <si>
+    <t>test 109</t>
+  </si>
+  <si>
+    <t>test 110</t>
+  </si>
+  <si>
+    <t>test 29</t>
+  </si>
+  <si>
+    <t>test 30</t>
+  </si>
+  <si>
+    <t>test 93</t>
+  </si>
+  <si>
+    <t>test 94</t>
+  </si>
+  <si>
+    <t>test 61</t>
+  </si>
+  <si>
+    <t>test 62</t>
+  </si>
+  <si>
+    <t>test 125</t>
+  </si>
+  <si>
+    <t>test 126</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 67</t>
+  </si>
+  <si>
+    <t>test 68</t>
+  </si>
+  <si>
+    <t>test 35</t>
+  </si>
+  <si>
+    <t>test 36</t>
+  </si>
+  <si>
+    <t>test 99</t>
+  </si>
+  <si>
+    <t>test 100</t>
+  </si>
+  <si>
+    <t>test 19</t>
+  </si>
+  <si>
+    <t>test 20</t>
+  </si>
+  <si>
+    <t>test 83</t>
+  </si>
+  <si>
+    <t>test 84</t>
+  </si>
+  <si>
+    <t>test 51</t>
+  </si>
+  <si>
+    <t>test 52</t>
+  </si>
+  <si>
+    <t>test 115</t>
+  </si>
+  <si>
+    <t>test 116</t>
+  </si>
+  <si>
+    <t>test 11</t>
+  </si>
+  <si>
+    <t>test 12</t>
+  </si>
+  <si>
+    <t>test 75</t>
+  </si>
+  <si>
+    <t>test 76</t>
+  </si>
+  <si>
+    <t>test 43</t>
+  </si>
+  <si>
+    <t>test 44</t>
+  </si>
+  <si>
+    <t>test 107</t>
+  </si>
+  <si>
+    <t>test 108</t>
+  </si>
+  <si>
+    <t>test 27</t>
+  </si>
+  <si>
+    <t>test 28</t>
+  </si>
+  <si>
+    <t>test 91</t>
+  </si>
+  <si>
+    <t>test 92</t>
+  </si>
+  <si>
+    <t>test 59</t>
+  </si>
+  <si>
+    <t>test 60</t>
+  </si>
+  <si>
+    <t>test 123</t>
+  </si>
+  <si>
+    <t>test 124</t>
+  </si>
+  <si>
+    <t>test 7</t>
+  </si>
+  <si>
+    <t>test 8</t>
+  </si>
+  <si>
+    <t>test 71</t>
+  </si>
+  <si>
+    <t>test 72</t>
+  </si>
+  <si>
+    <t>test 39</t>
+  </si>
+  <si>
+    <t>test 40</t>
+  </si>
+  <si>
+    <t>test 103</t>
+  </si>
+  <si>
+    <t>test 104</t>
+  </si>
+  <si>
+    <t>test 23</t>
+  </si>
+  <si>
+    <t>test 24</t>
+  </si>
+  <si>
+    <t>test 87</t>
+  </si>
+  <si>
+    <t>test 88</t>
+  </si>
+  <si>
+    <t>test 55</t>
+  </si>
+  <si>
+    <t>test 56</t>
+  </si>
+  <si>
+    <t>test 119</t>
+  </si>
+  <si>
+    <t>test 120</t>
+  </si>
+  <si>
+    <t>test 15</t>
+  </si>
+  <si>
+    <t>test 16</t>
+  </si>
+  <si>
+    <t>test 79</t>
+  </si>
+  <si>
+    <t>test 80</t>
+  </si>
+  <si>
+    <t>test 47</t>
+  </si>
+  <si>
+    <t>test 48</t>
+  </si>
+  <si>
+    <t>test 111</t>
+  </si>
+  <si>
+    <t>test 112</t>
+  </si>
+  <si>
+    <t>test 31</t>
+  </si>
+  <si>
+    <t>test 32</t>
+  </si>
+  <si>
+    <t>test 95</t>
+  </si>
+  <si>
+    <t>test 96</t>
+  </si>
+  <si>
+    <t>test 63</t>
+  </si>
+  <si>
+    <t>test 64</t>
+  </si>
+  <si>
+    <t>test 127</t>
+  </si>
+  <si>
+    <t>test 128</t>
   </si>
 </sst>
 </file>
@@ -540,7 +909,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" s="17"/>
+      <c r="D1" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -550,7 +921,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
       <c r="Y1" t="s" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z1" s="4">
         <v>2</v>
@@ -561,7 +932,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="17"/>
@@ -575,7 +946,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="11"/>
       <c r="Y2" t="s" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z2" s="2">
         <v>66</v>
@@ -587,10 +958,12 @@
         <v>33</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="17"/>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="1"/>
@@ -601,7 +974,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="7"/>
       <c r="Y3" t="s" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="1">
         <v>34</v>
@@ -613,7 +986,7 @@
         <v>97</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="17"/>
@@ -627,7 +1000,7 @@
       <c r="W4" s="17"/>
       <c r="X4" s="4"/>
       <c r="Y4" t="s" s="22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="2">
         <v>98</v>
@@ -639,10 +1012,12 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="17"/>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="1"/>
@@ -653,7 +1028,7 @@
       <c r="W5" s="17"/>
       <c r="X5" s="10"/>
       <c r="Y5" t="s" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="11">
         <v>18</v>
@@ -665,7 +1040,7 @@
         <v>81</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="17"/>
@@ -681,7 +1056,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="4"/>
       <c r="Y6" t="s" s="22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="2">
         <v>82</v>
@@ -693,10 +1068,12 @@
         <v>49</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="17"/>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -709,7 +1086,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" t="s" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Z7" s="11">
         <v>50</v>
@@ -720,7 +1097,7 @@
         <v>113</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="17"/>
@@ -736,7 +1113,7 @@
       <c r="W8" s="17"/>
       <c r="X8" s="11"/>
       <c r="Y8" t="s" s="22">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Z8" s="21">
         <v>114</v>
@@ -747,10 +1124,12 @@
         <v>9</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="17"/>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -763,7 +1142,7 @@
       <c r="W9" s="17"/>
       <c r="X9" s="10"/>
       <c r="Y9" t="s" s="13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Z9" s="11">
         <v>10</v>
@@ -774,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="17"/>
@@ -790,7 +1169,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="4"/>
       <c r="Y10" t="s" s="22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Z10" s="21">
         <v>74</v>
@@ -801,10 +1180,12 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="17"/>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -818,7 +1199,7 @@
       <c r="W11" s="17"/>
       <c r="X11" s="7"/>
       <c r="Y11" t="s" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Z11" s="11">
         <v>42</v>
@@ -829,7 +1210,7 @@
         <v>105</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="17"/>
@@ -845,7 +1226,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="4"/>
       <c r="Y12" t="s" s="22">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Z12" s="3">
         <v>106</v>
@@ -856,10 +1237,12 @@
         <v>25</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="17"/>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -872,7 +1255,7 @@
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" t="s" s="6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Z13" s="4">
         <v>26</v>
@@ -883,7 +1266,7 @@
         <v>89</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="17"/>
@@ -899,7 +1282,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="11"/>
       <c r="Y14" t="s" s="22">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Z14" s="21">
         <v>90</v>
@@ -910,10 +1293,12 @@
         <v>57</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="17"/>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -926,7 +1311,7 @@
       <c r="W15" s="17"/>
       <c r="X15" s="7"/>
       <c r="Y15" t="s" s="6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Z15" s="11">
         <v>58</v>
@@ -937,7 +1322,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="17"/>
@@ -953,7 +1338,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="4"/>
       <c r="Y16" t="s" s="22">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Z16" s="21">
         <v>122</v>
@@ -964,10 +1349,12 @@
         <v>5</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
+      <c r="D17" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -980,7 +1367,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="4"/>
       <c r="Y17" t="s" s="13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Z17" s="11">
         <v>6</v>
@@ -991,7 +1378,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="17"/>
@@ -1007,7 +1394,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="11"/>
       <c r="Y18" t="s" s="22">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="3">
         <v>70</v>
@@ -1018,10 +1405,12 @@
         <v>37</v>
       </c>
       <c r="B19" t="s" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="17"/>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1034,7 +1423,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" t="s" s="6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="Z19" s="4">
         <v>38</v>
@@ -1045,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="17"/>
@@ -1061,7 +1450,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="11"/>
       <c r="Y20" t="s" s="22">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Z20" s="21">
         <v>102</v>
@@ -1072,10 +1461,12 @@
         <v>21</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="17"/>
+      <c r="D21" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1088,7 +1479,7 @@
       <c r="W21" s="17"/>
       <c r="X21" s="10"/>
       <c r="Y21" t="s" s="13">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Z21" s="11">
         <v>22</v>
@@ -1099,7 +1490,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="17"/>
@@ -1116,7 +1507,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="11"/>
       <c r="Y22" t="s" s="22">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="Z22" s="21">
         <v>86</v>
@@ -1127,10 +1518,12 @@
         <v>53</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="17"/>
+      <c r="D23" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -1144,7 +1537,7 @@
       <c r="W23" s="17"/>
       <c r="X23" s="7"/>
       <c r="Y23" t="s" s="6">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Z23" s="11">
         <v>54</v>
@@ -1155,7 +1548,7 @@
         <v>117</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="17"/>
@@ -1173,7 +1566,7 @@
       <c r="W24" s="17"/>
       <c r="X24" s="11"/>
       <c r="Y24" t="s" s="22">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="Z24" s="3">
         <v>118</v>
@@ -1184,10 +1577,12 @@
         <v>13</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="17"/>
+      <c r="D25" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -1201,7 +1596,7 @@
       <c r="W25" s="17"/>
       <c r="X25" s="4"/>
       <c r="Y25" t="s" s="13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Z25" s="11">
         <v>14</v>
@@ -1212,7 +1607,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="17"/>
@@ -1231,7 +1626,7 @@
       <c r="W26" s="17"/>
       <c r="X26" s="11"/>
       <c r="Y26" t="s" s="22">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="Z26" s="3">
         <v>78</v>
@@ -1242,10 +1637,12 @@
         <v>45</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
+      <c r="D27" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1264,7 +1661,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" t="s" s="6">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="Z27" s="11">
         <v>46</v>
@@ -1275,7 +1672,7 @@
         <v>109</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="17"/>
@@ -1293,7 +1690,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="11"/>
       <c r="Y28" t="s" s="22">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Z28" s="3">
         <v>110</v>
@@ -1304,10 +1701,12 @@
         <v>29</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="17"/>
+      <c r="D29" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -1321,7 +1720,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="4"/>
       <c r="Y29" t="s" s="13">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="Z29" s="4">
         <v>30</v>
@@ -1332,7 +1731,7 @@
         <v>93</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="17"/>
@@ -1349,7 +1748,7 @@
       <c r="W30" s="17"/>
       <c r="X30" s="11"/>
       <c r="Y30" t="s" s="22">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="Z30" s="21">
         <v>94</v>
@@ -1360,10 +1759,12 @@
         <v>61</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
+      <c r="D31" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1377,7 +1778,7 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" t="s" s="6">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="Z31" s="11">
         <v>62</v>
@@ -1388,7 +1789,7 @@
         <v>125</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="17"/>
@@ -1405,7 +1806,7 @@
       <c r="W32" s="17"/>
       <c r="X32" s="11"/>
       <c r="Y32" t="s" s="22">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="Z32" s="3">
         <v>126</v>
@@ -1416,10 +1817,12 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="17"/>
+      <c r="D33" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1433,7 +1836,7 @@
       <c r="W33" s="17"/>
       <c r="X33" s="4"/>
       <c r="Y33" t="s" s="13">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="Z33" s="11">
         <v>4</v>
@@ -1444,7 +1847,7 @@
         <v>67</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="17"/>
@@ -1461,7 +1864,7 @@
       <c r="W34" s="17"/>
       <c r="X34" s="11"/>
       <c r="Y34" t="s" s="22">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="Z34" s="3">
         <v>68</v>
@@ -1472,10 +1875,12 @@
         <v>35</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="17"/>
+      <c r="D35" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -1489,7 +1894,7 @@
       <c r="W35" s="17"/>
       <c r="X35" s="7"/>
       <c r="Y35" t="s" s="6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="Z35" s="4">
         <v>36</v>
@@ -1500,7 +1905,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="17"/>
@@ -1517,7 +1922,7 @@
       <c r="W36" s="17"/>
       <c r="X36" s="11"/>
       <c r="Y36" t="s" s="22">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="Z36" s="21">
         <v>100</v>
@@ -1528,10 +1933,12 @@
         <v>19</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="17"/>
+      <c r="D37" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -1545,7 +1952,7 @@
       <c r="W37" s="17"/>
       <c r="X37" s="4"/>
       <c r="Y37" t="s" s="13">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="Z37" s="11">
         <v>20</v>
@@ -1556,7 +1963,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="17"/>
@@ -1571,7 +1978,7 @@
       <c r="W38" s="17"/>
       <c r="X38" s="11"/>
       <c r="Y38" t="s" s="22">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="Z38" s="21">
         <v>84</v>
@@ -1582,10 +1989,12 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="17"/>
+      <c r="D39" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -1597,7 +2006,7 @@
       <c r="W39" s="17"/>
       <c r="X39" s="7"/>
       <c r="Y39" t="s" s="6">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="Z39" s="11">
         <v>52</v>
@@ -1608,7 +2017,7 @@
         <v>115</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="17"/>
@@ -1623,7 +2032,7 @@
       <c r="W40" s="17"/>
       <c r="X40" s="4"/>
       <c r="Y40" t="s" s="22">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Z40" s="3">
         <v>116</v>
@@ -1634,10 +2043,12 @@
         <v>11</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="17"/>
+      <c r="D41" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -1649,7 +2060,7 @@
       <c r="W41" s="17"/>
       <c r="X41" s="4"/>
       <c r="Y41" t="s" s="13">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="Z41" s="4">
         <v>12</v>
@@ -1660,7 +2071,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="17"/>
@@ -1675,7 +2086,7 @@
       <c r="W42" s="17"/>
       <c r="X42" s="11"/>
       <c r="Y42" t="s" s="22">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="Z42" s="3">
         <v>76</v>
@@ -1686,10 +2097,12 @@
         <v>43</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="17"/>
+      <c r="D43" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -1701,7 +2114,7 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Y43" t="s" s="6">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="Z43" s="4">
         <v>44</v>
@@ -1712,7 +2125,7 @@
         <v>107</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="17"/>
@@ -1736,7 +2149,7 @@
       <c r="W44" s="17"/>
       <c r="X44" s="11"/>
       <c r="Y44" t="s" s="22">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="Z44" s="3">
         <v>108</v>
@@ -1747,10 +2160,12 @@
         <v>27</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="17"/>
+      <c r="D45" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -1771,7 +2186,7 @@
       <c r="W45" s="17"/>
       <c r="X45" s="10"/>
       <c r="Y45" t="s" s="13">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Z45" s="4">
         <v>28</v>
@@ -1782,7 +2197,7 @@
         <v>91</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="17"/>
@@ -1806,7 +2221,7 @@
       <c r="W46" s="17"/>
       <c r="X46" s="4"/>
       <c r="Y46" t="s" s="22">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="Z46" s="21">
         <v>92</v>
@@ -1817,10 +2232,12 @@
         <v>59</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="17"/>
+      <c r="D47" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -1841,7 +2258,7 @@
       <c r="W47" s="17"/>
       <c r="X47" s="7"/>
       <c r="Y47" t="s" s="6">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="Z47" s="11">
         <v>60</v>
@@ -1852,7 +2269,7 @@
         <v>123</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="17"/>
@@ -1876,7 +2293,7 @@
       <c r="W48" s="17"/>
       <c r="X48" s="11"/>
       <c r="Y48" t="s" s="22">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="Z48" s="21">
         <v>124</v>
@@ -1887,10 +2304,12 @@
         <v>7</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="17"/>
+      <c r="D49" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -1902,7 +2321,7 @@
       <c r="W49" s="17"/>
       <c r="X49" s="4"/>
       <c r="Y49" t="s" s="13">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="Z49" s="11">
         <v>8</v>
@@ -1913,7 +2332,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="17"/>
@@ -1928,7 +2347,7 @@
       <c r="W50" s="17"/>
       <c r="X50" s="11"/>
       <c r="Y50" t="s" s="22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Z50" s="3">
         <v>72</v>
@@ -1939,10 +2358,12 @@
         <v>39</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="17"/>
+      <c r="D51" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -1954,7 +2375,7 @@
       <c r="W51" s="17"/>
       <c r="X51" s="7"/>
       <c r="Y51" t="s" s="6">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="Z51" s="11">
         <v>40</v>
@@ -1965,7 +2386,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="17"/>
@@ -1980,7 +2401,7 @@
       <c r="W52" s="17"/>
       <c r="X52" s="11"/>
       <c r="Y52" t="s" s="22">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="Z52" s="3">
         <v>104</v>
@@ -1991,10 +2412,12 @@
         <v>23</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="17"/>
+      <c r="D53" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -2006,7 +2429,7 @@
       <c r="W53" s="17"/>
       <c r="X53" s="10"/>
       <c r="Y53" t="s" s="13">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="Z53" s="4">
         <v>24</v>
@@ -2017,7 +2440,7 @@
         <v>87</v>
       </c>
       <c r="B54" t="s" s="3">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="17"/>
@@ -2032,7 +2455,7 @@
       <c r="W54" s="17"/>
       <c r="X54" s="4"/>
       <c r="Y54" t="s" s="22">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="Z54" s="3">
         <v>88</v>
@@ -2043,10 +2466,12 @@
         <v>55</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="17"/>
+      <c r="D55" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -2058,7 +2483,7 @@
       <c r="W55" s="17"/>
       <c r="X55" s="7"/>
       <c r="Y55" t="s" s="6">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="Z55" s="4">
         <v>56</v>
@@ -2069,7 +2494,7 @@
         <v>119</v>
       </c>
       <c r="B56" t="s" s="3">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="17"/>
@@ -2084,7 +2509,7 @@
       <c r="W56" s="17"/>
       <c r="X56" s="4"/>
       <c r="Y56" t="s" s="22">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="Z56" s="3">
         <v>120</v>
@@ -2095,10 +2520,12 @@
         <v>15</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="17"/>
+      <c r="D57" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -2110,7 +2537,7 @@
       <c r="W57" s="17"/>
       <c r="X57" s="4"/>
       <c r="Y57" t="s" s="13">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="Z57" s="4">
         <v>16</v>
@@ -2121,7 +2548,7 @@
         <v>79</v>
       </c>
       <c r="B58" t="s" s="3">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="17"/>
@@ -2136,7 +2563,7 @@
       <c r="W58" s="17"/>
       <c r="X58" s="11"/>
       <c r="Y58" t="s" s="22">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="Z58" s="21">
         <v>80</v>
@@ -2147,10 +2574,12 @@
         <v>47</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="17"/>
+      <c r="D59" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -2162,7 +2591,7 @@
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
       <c r="Y59" t="s" s="6">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="Z59" s="11">
         <v>48</v>
@@ -2173,7 +2602,7 @@
         <v>111</v>
       </c>
       <c r="B60" t="s" s="3">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="17"/>
@@ -2188,7 +2617,7 @@
       <c r="W60" s="17"/>
       <c r="X60" s="11"/>
       <c r="Y60" t="s" s="22">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="Z60" s="3">
         <v>112</v>
@@ -2199,10 +2628,12 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="17"/>
+      <c r="D61" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -2214,7 +2645,7 @@
       <c r="W61" s="17"/>
       <c r="X61" s="4"/>
       <c r="Y61" t="s" s="13">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="Z61" s="11">
         <v>32</v>
@@ -2225,7 +2656,7 @@
         <v>95</v>
       </c>
       <c r="B62" t="s" s="3">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="17"/>
@@ -2239,7 +2670,7 @@
       <c r="W62" s="17"/>
       <c r="X62" s="11"/>
       <c r="Y62" t="s" s="22">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="Z62" s="3">
         <v>96</v>
@@ -2250,10 +2681,12 @@
         <v>63</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" s="17"/>
+      <c r="D63" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="E63" s="18"/>
       <c r="S63" s="17"/>
       <c r="T63" s="17"/>
@@ -2262,7 +2695,7 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
       <c r="Y63" t="s" s="6">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="Z63" s="4">
         <v>64</v>
@@ -2273,7 +2706,7 @@
         <v>127</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="18"/>
@@ -2285,7 +2718,7 @@
       </c>
       <c r="X64" s="11"/>
       <c r="Y64" t="s" s="22">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="Z64" s="3">
         <v>128</v>

--- a/src/main/resources/file/1-64_updated.xlsx
+++ b/src/main/resources/file/1-64_updated.xlsx
@@ -919,7 +919,9 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="W1" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="Y1" t="s" s="17">
         <v>2</v>
       </c>
@@ -971,7 +973,9 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="W3" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X3" s="7"/>
       <c r="Y3" t="s" s="6">
         <v>6</v>
@@ -1025,7 +1029,9 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
+      <c r="W5" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X5" s="10"/>
       <c r="Y5" t="s" s="13">
         <v>10</v>
@@ -1083,7 +1089,9 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
+      <c r="W7" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X7" s="17"/>
       <c r="Y7" t="s" s="6">
         <v>14</v>
@@ -1139,7 +1147,9 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="W9" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X9" s="10"/>
       <c r="Y9" t="s" s="13">
         <v>18</v>
@@ -1196,7 +1206,9 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="W11" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" t="s" s="6">
         <v>22</v>
@@ -1252,7 +1264,9 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="W13" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X13" s="17"/>
       <c r="Y13" t="s" s="6">
         <v>26</v>
@@ -1308,7 +1322,9 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="W15" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" t="s" s="6">
         <v>30</v>
@@ -1364,7 +1380,9 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="W17" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X17" s="4"/>
       <c r="Y17" t="s" s="13">
         <v>34</v>
@@ -1420,7 +1438,9 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
+      <c r="W19" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X19" s="17"/>
       <c r="Y19" t="s" s="6">
         <v>38</v>
@@ -1476,7 +1496,9 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
+      <c r="W21" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X21" s="10"/>
       <c r="Y21" t="s" s="13">
         <v>42</v>
@@ -1534,7 +1556,9 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="W23" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X23" s="7"/>
       <c r="Y23" t="s" s="6">
         <v>46</v>
@@ -1593,7 +1617,9 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
+      <c r="W25" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" t="s" s="13">
         <v>50</v>
@@ -1658,7 +1684,9 @@
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
+      <c r="W27" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X27" s="17"/>
       <c r="Y27" t="s" s="6">
         <v>54</v>
@@ -1717,7 +1745,9 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
+      <c r="W29" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X29" s="4"/>
       <c r="Y29" t="s" s="13">
         <v>58</v>
@@ -1775,7 +1805,9 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
+      <c r="W31" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X31" s="17"/>
       <c r="Y31" t="s" s="6">
         <v>62</v>
@@ -1833,7 +1865,9 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
+      <c r="W33" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X33" s="4"/>
       <c r="Y33" t="s" s="13">
         <v>66</v>
@@ -1891,7 +1925,9 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
+      <c r="W35" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X35" s="7"/>
       <c r="Y35" t="s" s="6">
         <v>70</v>
@@ -1949,7 +1985,9 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
+      <c r="W37" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X37" s="4"/>
       <c r="Y37" t="s" s="13">
         <v>74</v>
@@ -2003,7 +2041,9 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
+      <c r="W39" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X39" s="7"/>
       <c r="Y39" t="s" s="6">
         <v>78</v>
@@ -2057,7 +2097,9 @@
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
+      <c r="W41" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X41" s="4"/>
       <c r="Y41" t="s" s="13">
         <v>82</v>
@@ -2111,7 +2153,9 @@
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
+      <c r="W43" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X43" s="17"/>
       <c r="Y43" t="s" s="6">
         <v>86</v>
@@ -2183,7 +2227,9 @@
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
+      <c r="W45" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X45" s="10"/>
       <c r="Y45" t="s" s="13">
         <v>90</v>
@@ -2255,7 +2301,9 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
+      <c r="W47" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X47" s="7"/>
       <c r="Y47" t="s" s="6">
         <v>94</v>
@@ -2318,7 +2366,9 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
+      <c r="W49" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X49" s="4"/>
       <c r="Y49" t="s" s="13">
         <v>98</v>
@@ -2372,7 +2422,9 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
+      <c r="W51" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X51" s="7"/>
       <c r="Y51" t="s" s="6">
         <v>102</v>
@@ -2426,7 +2478,9 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
+      <c r="W53" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X53" s="10"/>
       <c r="Y53" t="s" s="13">
         <v>106</v>
@@ -2480,7 +2534,9 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
+      <c r="W55" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X55" s="7"/>
       <c r="Y55" t="s" s="6">
         <v>110</v>
@@ -2534,7 +2590,9 @@
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
+      <c r="W57" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X57" s="4"/>
       <c r="Y57" t="s" s="13">
         <v>114</v>
@@ -2588,7 +2646,9 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
+      <c r="W59" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X59" s="17"/>
       <c r="Y59" t="s" s="6">
         <v>118</v>
@@ -2642,7 +2702,9 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
+      <c r="W61" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X61" s="4"/>
       <c r="Y61" t="s" s="13">
         <v>122</v>
@@ -2692,7 +2754,9 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
+      <c r="W63" t="n" s="1">
+        <v>0.0</v>
+      </c>
       <c r="X63" s="17"/>
       <c r="Y63" t="s" s="6">
         <v>126</v>

--- a/src/main/resources/file/1-64_updated.xlsx
+++ b/src/main/resources/file/1-64_updated.xlsx
@@ -910,7 +910,7 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -920,7 +920,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
       <c r="W1" t="n" s="1">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="Y1" t="s" s="17">
         <v>2</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="n" s="0">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -974,7 +974,7 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" t="n" s="1">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" t="s" s="6">
@@ -1019,9 +1019,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="1"/>
@@ -1029,9 +1027,7 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
-      <c r="W5" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W5" s="1"/>
       <c r="X5" s="10"/>
       <c r="Y5" t="s" s="13">
         <v>10</v>
@@ -1077,9 +1073,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="1"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1089,9 +1083,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
-      <c r="W7" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W7" s="1"/>
       <c r="X7" s="17"/>
       <c r="Y7" t="s" s="6">
         <v>14</v>
@@ -1135,9 +1127,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -1147,9 +1137,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
-      <c r="W9" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W9" s="1"/>
       <c r="X9" s="10"/>
       <c r="Y9" t="s" s="13">
         <v>18</v>
@@ -1193,9 +1181,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1206,9 +1192,7 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W11" s="1"/>
       <c r="X11" s="7"/>
       <c r="Y11" t="s" s="6">
         <v>22</v>
@@ -1252,9 +1236,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -1264,9 +1246,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W13" s="1"/>
       <c r="X13" s="17"/>
       <c r="Y13" t="s" s="6">
         <v>26</v>
@@ -1310,9 +1290,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1322,9 +1300,7 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="W15" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W15" s="1"/>
       <c r="X15" s="7"/>
       <c r="Y15" t="s" s="6">
         <v>30</v>
@@ -1368,9 +1344,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -1380,9 +1354,7 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
-      <c r="W17" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W17" s="1"/>
       <c r="X17" s="4"/>
       <c r="Y17" t="s" s="13">
         <v>34</v>
@@ -1426,9 +1398,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D19" s="0"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1438,9 +1408,7 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W19" s="1"/>
       <c r="X19" s="17"/>
       <c r="Y19" t="s" s="6">
         <v>38</v>
@@ -1484,9 +1452,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D21" s="0"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1496,9 +1462,7 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
-      <c r="W21" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W21" s="1"/>
       <c r="X21" s="10"/>
       <c r="Y21" t="s" s="13">
         <v>42</v>
@@ -1543,9 +1507,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D23" s="0"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -1556,9 +1518,7 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
-      <c r="W23" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W23" s="1"/>
       <c r="X23" s="7"/>
       <c r="Y23" t="s" s="6">
         <v>46</v>
@@ -1604,9 +1564,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D25" s="0"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -1617,9 +1575,7 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
-      <c r="W25" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W25" s="1"/>
       <c r="X25" s="4"/>
       <c r="Y25" t="s" s="13">
         <v>50</v>
@@ -1666,9 +1622,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D27" s="0"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1684,9 +1638,7 @@
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
-      <c r="W27" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="17"/>
       <c r="Y27" t="s" s="6">
         <v>54</v>
@@ -1732,9 +1684,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D29" s="0"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -1745,9 +1695,7 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="W29" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W29" s="1"/>
       <c r="X29" s="4"/>
       <c r="Y29" t="s" s="13">
         <v>58</v>
@@ -1792,9 +1740,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D31" s="0"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1805,9 +1751,7 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="W31" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W31" s="1"/>
       <c r="X31" s="17"/>
       <c r="Y31" t="s" s="6">
         <v>62</v>
@@ -1852,9 +1796,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="9"/>
-      <c r="D33" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1865,9 +1807,7 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
-      <c r="W33" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W33" s="1"/>
       <c r="X33" s="4"/>
       <c r="Y33" t="s" s="13">
         <v>66</v>
@@ -1912,9 +1852,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D35" s="0"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -1925,9 +1863,7 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
-      <c r="W35" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W35" s="1"/>
       <c r="X35" s="7"/>
       <c r="Y35" t="s" s="6">
         <v>70</v>
@@ -1972,9 +1908,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D37" s="0"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -1985,9 +1919,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
-      <c r="W37" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W37" s="1"/>
       <c r="X37" s="4"/>
       <c r="Y37" t="s" s="13">
         <v>74</v>
@@ -2030,9 +1962,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D39" s="0"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -2041,9 +1971,7 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
-      <c r="W39" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="7"/>
       <c r="Y39" t="s" s="6">
         <v>78</v>
@@ -2086,9 +2014,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D41" s="0"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -2097,9 +2023,7 @@
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
-      <c r="W41" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="4"/>
       <c r="Y41" t="s" s="13">
         <v>82</v>
@@ -2142,9 +2066,7 @@
         <v>85</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D43" s="0"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -2153,9 +2075,7 @@
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
-      <c r="W43" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W43" s="1"/>
       <c r="X43" s="17"/>
       <c r="Y43" t="s" s="6">
         <v>86</v>
@@ -2207,9 +2127,7 @@
         <v>89</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D45" s="0"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -2227,9 +2145,7 @@
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
-      <c r="W45" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="10"/>
       <c r="Y45" t="s" s="13">
         <v>90</v>
@@ -2281,9 +2197,7 @@
         <v>93</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D47" s="0"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -2301,9 +2215,7 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
-      <c r="W47" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W47" s="1"/>
       <c r="X47" s="7"/>
       <c r="Y47" t="s" s="6">
         <v>94</v>
@@ -2355,9 +2267,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D49" s="0"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -2366,9 +2276,7 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
-      <c r="W49" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W49" s="1"/>
       <c r="X49" s="4"/>
       <c r="Y49" t="s" s="13">
         <v>98</v>
@@ -2411,9 +2319,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D51" s="0"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -2422,9 +2328,7 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
-      <c r="W51" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W51" s="1"/>
       <c r="X51" s="7"/>
       <c r="Y51" t="s" s="6">
         <v>102</v>
@@ -2467,9 +2371,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D53" s="0"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -2478,9 +2380,7 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
-      <c r="W53" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W53" s="1"/>
       <c r="X53" s="10"/>
       <c r="Y53" t="s" s="13">
         <v>106</v>
@@ -2523,9 +2423,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D55" s="0"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -2534,9 +2432,7 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
-      <c r="W55" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W55" s="1"/>
       <c r="X55" s="7"/>
       <c r="Y55" t="s" s="6">
         <v>110</v>
@@ -2579,9 +2475,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D57" s="0"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -2590,9 +2484,7 @@
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
-      <c r="W57" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W57" s="1"/>
       <c r="X57" s="4"/>
       <c r="Y57" t="s" s="13">
         <v>114</v>
@@ -2635,9 +2527,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D59" s="0"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -2646,9 +2536,7 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
-      <c r="W59" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W59" s="1"/>
       <c r="X59" s="17"/>
       <c r="Y59" t="s" s="6">
         <v>118</v>
@@ -2691,9 +2579,7 @@
         <v>121</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D61" s="0"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -2702,9 +2588,7 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
-      <c r="W61" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W61" s="1"/>
       <c r="X61" s="4"/>
       <c r="Y61" t="s" s="13">
         <v>122</v>
@@ -2746,17 +2630,13 @@
         <v>125</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" t="n" s="0">
-        <v>0.0</v>
-      </c>
+      <c r="D63" s="0"/>
       <c r="E63" s="18"/>
       <c r="S63" s="17"/>
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
-      <c r="W63" t="n" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="W63" s="1"/>
       <c r="X63" s="17"/>
       <c r="Y63" t="s" s="6">
         <v>126</v>

--- a/src/main/resources/file/1-64_updated.xlsx
+++ b/src/main/resources/file/1-64_updated.xlsx
@@ -25,393 +25,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
   <si>
     <t>Sportsmen</t>
   </si>
   <si>
-    <t>test 1</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 65</t>
-  </si>
-  <si>
-    <t>test 66</t>
-  </si>
-  <si>
-    <t>test 33</t>
-  </si>
-  <si>
-    <t>test 34</t>
-  </si>
-  <si>
-    <t>test 97</t>
-  </si>
-  <si>
-    <t>test 98</t>
-  </si>
-  <si>
-    <t>test 17</t>
-  </si>
-  <si>
-    <t>test 18</t>
-  </si>
-  <si>
-    <t>test 81</t>
-  </si>
-  <si>
-    <t>test 82</t>
-  </si>
-  <si>
-    <t>test 49</t>
-  </si>
-  <si>
-    <t>test 50</t>
-  </si>
-  <si>
-    <t>test 113</t>
-  </si>
-  <si>
-    <t>test 114</t>
-  </si>
-  <si>
-    <t>test 9</t>
-  </si>
-  <si>
-    <t>test 10</t>
-  </si>
-  <si>
-    <t>test 73</t>
-  </si>
-  <si>
-    <t>test 74</t>
-  </si>
-  <si>
-    <t>test 41</t>
-  </si>
-  <si>
-    <t>test 42</t>
-  </si>
-  <si>
-    <t>test 105</t>
-  </si>
-  <si>
-    <t>test 106</t>
-  </si>
-  <si>
-    <t>test 25</t>
-  </si>
-  <si>
-    <t>test 26</t>
-  </si>
-  <si>
-    <t>test 89</t>
-  </si>
-  <si>
-    <t>test 90</t>
-  </si>
-  <si>
-    <t>test 57</t>
-  </si>
-  <si>
-    <t>test 58</t>
-  </si>
-  <si>
-    <t>test 121</t>
-  </si>
-  <si>
-    <t>test 122</t>
-  </si>
-  <si>
-    <t>test 5</t>
-  </si>
-  <si>
-    <t>test 6</t>
-  </si>
-  <si>
-    <t>test 69</t>
-  </si>
-  <si>
-    <t>test 70</t>
-  </si>
-  <si>
-    <t>test 37</t>
-  </si>
-  <si>
-    <t>test 38</t>
-  </si>
-  <si>
-    <t>test 101</t>
-  </si>
-  <si>
-    <t>test 102</t>
-  </si>
-  <si>
-    <t>test 21</t>
-  </si>
-  <si>
-    <t>test 22</t>
-  </si>
-  <si>
-    <t>test 85</t>
-  </si>
-  <si>
-    <t>test 86</t>
-  </si>
-  <si>
-    <t>test 53</t>
-  </si>
-  <si>
-    <t>test 54</t>
-  </si>
-  <si>
-    <t>test 117</t>
-  </si>
-  <si>
-    <t>test 118</t>
-  </si>
-  <si>
-    <t>test 13</t>
-  </si>
-  <si>
-    <t>test 14</t>
-  </si>
-  <si>
-    <t>test 77</t>
-  </si>
-  <si>
-    <t>test 78</t>
-  </si>
-  <si>
-    <t>test 45</t>
-  </si>
-  <si>
-    <t>test 46</t>
-  </si>
-  <si>
-    <t>test 109</t>
-  </si>
-  <si>
-    <t>test 110</t>
-  </si>
-  <si>
-    <t>test 29</t>
-  </si>
-  <si>
-    <t>test 30</t>
-  </si>
-  <si>
-    <t>test 93</t>
-  </si>
-  <si>
-    <t>test 94</t>
-  </si>
-  <si>
-    <t>test 61</t>
-  </si>
-  <si>
-    <t>test 62</t>
-  </si>
-  <si>
-    <t>test 125</t>
-  </si>
-  <si>
-    <t>test 126</t>
-  </si>
-  <si>
-    <t>test 3</t>
-  </si>
-  <si>
-    <t>test 4</t>
-  </si>
-  <si>
-    <t>test 67</t>
-  </si>
-  <si>
-    <t>test 68</t>
-  </si>
-  <si>
-    <t>test 35</t>
-  </si>
-  <si>
-    <t>test 36</t>
-  </si>
-  <si>
-    <t>test 99</t>
-  </si>
-  <si>
-    <t>test 100</t>
-  </si>
-  <si>
-    <t>test 19</t>
-  </si>
-  <si>
-    <t>test 20</t>
-  </si>
-  <si>
-    <t>test 83</t>
-  </si>
-  <si>
-    <t>test 84</t>
-  </si>
-  <si>
-    <t>test 51</t>
-  </si>
-  <si>
-    <t>test 52</t>
-  </si>
-  <si>
-    <t>test 115</t>
-  </si>
-  <si>
-    <t>test 116</t>
-  </si>
-  <si>
-    <t>test 11</t>
-  </si>
-  <si>
-    <t>test 12</t>
-  </si>
-  <si>
-    <t>test 75</t>
-  </si>
-  <si>
-    <t>test 76</t>
-  </si>
-  <si>
-    <t>test 43</t>
-  </si>
-  <si>
-    <t>test 44</t>
-  </si>
-  <si>
-    <t>test 107</t>
-  </si>
-  <si>
-    <t>test 108</t>
-  </si>
-  <si>
-    <t>test 27</t>
-  </si>
-  <si>
-    <t>test 28</t>
-  </si>
-  <si>
-    <t>test 91</t>
-  </si>
-  <si>
-    <t>test 92</t>
-  </si>
-  <si>
-    <t>test 59</t>
-  </si>
-  <si>
-    <t>test 60</t>
-  </si>
-  <si>
-    <t>test 123</t>
-  </si>
-  <si>
-    <t>test 124</t>
-  </si>
-  <si>
-    <t>test 7</t>
-  </si>
-  <si>
-    <t>test 8</t>
-  </si>
-  <si>
-    <t>test 71</t>
-  </si>
-  <si>
-    <t>test 72</t>
-  </si>
-  <si>
-    <t>test 39</t>
-  </si>
-  <si>
-    <t>test 40</t>
-  </si>
-  <si>
-    <t>test 103</t>
-  </si>
-  <si>
-    <t>test 104</t>
-  </si>
-  <si>
-    <t>test 23</t>
-  </si>
-  <si>
-    <t>test 24</t>
-  </si>
-  <si>
-    <t>test 87</t>
-  </si>
-  <si>
-    <t>test 88</t>
-  </si>
-  <si>
-    <t>test 55</t>
-  </si>
-  <si>
-    <t>test 56</t>
-  </si>
-  <si>
-    <t>test 119</t>
-  </si>
-  <si>
-    <t>test 120</t>
-  </si>
-  <si>
-    <t>test 15</t>
-  </si>
-  <si>
-    <t>test 16</t>
-  </si>
-  <si>
-    <t>test 79</t>
-  </si>
-  <si>
-    <t>test 80</t>
-  </si>
-  <si>
-    <t>test 47</t>
-  </si>
-  <si>
-    <t>test 48</t>
-  </si>
-  <si>
-    <t>test 111</t>
-  </si>
-  <si>
-    <t>test 112</t>
-  </si>
-  <si>
-    <t>test 31</t>
-  </si>
-  <si>
-    <t>test 32</t>
-  </si>
-  <si>
-    <t>test 95</t>
-  </si>
-  <si>
-    <t>test 96</t>
-  </si>
-  <si>
-    <t>test 63</t>
-  </si>
-  <si>
-    <t>test 64</t>
-  </si>
-  <si>
-    <t>test 127</t>
-  </si>
-  <si>
-    <t>test 128</t>
+    <t>Уралов Кувончбек</t>
+  </si>
+  <si>
+    <t>Эркулов Шохжахон</t>
+  </si>
+  <si>
+    <t>Бобоев Олимжон</t>
+  </si>
+  <si>
+    <t>Уктамбоев Диёр</t>
+  </si>
+  <si>
+    <t>Абдурахмонов Валижон</t>
+  </si>
+  <si>
+    <t>Мирзозода Мунис</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Мардонов Муродбек</t>
+  </si>
+  <si>
+    <t>Исматуллаев Бехруз</t>
+  </si>
+  <si>
+    <t>Абдуллаев Мусохон</t>
+  </si>
+  <si>
+    <t>Тимуров Руслан</t>
+  </si>
+  <si>
+    <t>Рустамов Камрон</t>
+  </si>
+  <si>
+    <t>Кабулов Иброхим</t>
+  </si>
+  <si>
+    <t>Эшпулатов Журабек</t>
+  </si>
+  <si>
+    <t>Соатов Арслан</t>
+  </si>
+  <si>
+    <t>Рахмиддинов Абдуллох</t>
+  </si>
+  <si>
+    <t>Садиков Иброхим</t>
+  </si>
+  <si>
+    <t>Саттар Алтаир</t>
+  </si>
+  <si>
+    <t>Булекбаев Али</t>
+  </si>
+  <si>
+    <t>Бобомуродов Дилшод</t>
+  </si>
+  <si>
+    <t>Шухратов Рамзиддин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Садуллаев Улугбек </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Садуллаев Фирдавс </t>
+  </si>
+  <si>
+    <t>Амриев Мухриддин</t>
+  </si>
+  <si>
+    <t>Валериев Жахонгир</t>
+  </si>
+  <si>
+    <t>Каримов Бобуржон</t>
+  </si>
+  <si>
+    <t>Сафарбаев Азизбек</t>
+  </si>
+  <si>
+    <t>Каныбеков Нурболот</t>
+  </si>
+  <si>
+    <t>Искендеров Самарканд</t>
+  </si>
+  <si>
+    <t>Абдураззоков Билол</t>
+  </si>
+  <si>
+    <t>Абдухамидов Хушнуд</t>
+  </si>
+  <si>
+    <t>Акбаров Достон</t>
+  </si>
+  <si>
+    <t>Мухиддинов Нодир</t>
+  </si>
+  <si>
+    <t>Холиков Билолхуджа</t>
+  </si>
+  <si>
+    <t>Шомуродов Шохмурод</t>
+  </si>
+  <si>
+    <t>Абдухафизов Шахзод</t>
+  </si>
+  <si>
+    <t>Бердимуродов Мехриддин</t>
+  </si>
+  <si>
+    <t>Икромжонов Саидахрор</t>
+  </si>
+  <si>
+    <t>Зайнутдинов Хабибулло</t>
+  </si>
+  <si>
+    <t>Худойбердиев Жасурбек</t>
+  </si>
+  <si>
+    <t>Чориев Давлатбек</t>
+  </si>
+  <si>
+    <t>Азамов Ахрор</t>
+  </si>
+  <si>
+    <t>Абдуллаев Аскарбек</t>
+  </si>
+  <si>
+    <t>Нематжонов Азиз</t>
+  </si>
+  <si>
+    <t>Собиров Тимур</t>
+  </si>
+  <si>
+    <t>Дурдиев Алибек</t>
+  </si>
+  <si>
+    <t>Жуманазаров Жамол</t>
+  </si>
+  <si>
+    <t>Шодиев Мухаммадшох</t>
+  </si>
+  <si>
+    <t>Сартбаев Ислам</t>
+  </si>
+  <si>
+    <t>Исмоилов Алишер</t>
+  </si>
+  <si>
+    <t>Шермуродов Абдулхай</t>
+  </si>
+  <si>
+    <t>Кахрамонов Мухаммадумар</t>
+  </si>
+  <si>
+    <t>Муминов Жавохир</t>
+  </si>
+  <si>
+    <t>Хуршидов Сардор</t>
+  </si>
+  <si>
+    <t>Каримов Алиризо</t>
+  </si>
+  <si>
+    <t>Бобоёров Дилшод</t>
+  </si>
+  <si>
+    <t>Нарзуллаев Билолбек</t>
+  </si>
+  <si>
+    <t>Носиров Бунёд</t>
+  </si>
+  <si>
+    <t>Тургунов Мухаммадмустафо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хушбоков Расул </t>
+  </si>
+  <si>
+    <t>Омонов Кувончбек</t>
+  </si>
+  <si>
+    <t>Суннатов Самандар</t>
+  </si>
+  <si>
+    <t>Нуркулов Алишер</t>
+  </si>
+  <si>
+    <t>Алибоев Арсен</t>
+  </si>
+  <si>
+    <t>Явкачев Файзулло</t>
+  </si>
+  <si>
+    <t>Салимов Хосил</t>
+  </si>
+  <si>
+    <t>Юсупов Хушнуд</t>
+  </si>
+  <si>
+    <t>Камбазар Руслан</t>
+  </si>
+  <si>
+    <t>Смагул Ислам</t>
+  </si>
+  <si>
+    <t>Юлдошев Акобир</t>
+  </si>
+  <si>
+    <t>Худойкулов Мирзохид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулейманов Камал </t>
+  </si>
+  <si>
+    <t>Кан Эрик</t>
+  </si>
+  <si>
+    <t>Баходыров Озодбек</t>
+  </si>
+  <si>
+    <t>Рашидов Хушнуд</t>
+  </si>
+  <si>
+    <t>Низомбеков Жавохир</t>
+  </si>
+  <si>
+    <t>Махмудов Равшанбек</t>
+  </si>
+  <si>
+    <t>Санакулов Нурмухаммад</t>
+  </si>
+  <si>
+    <t>Саибжонов Бехруз</t>
+  </si>
+  <si>
+    <t>Турдиев Назарбек</t>
+  </si>
+  <si>
+    <t>Вохидов Талабшох</t>
+  </si>
+  <si>
+    <t>Мирзахматов Диёрбек</t>
+  </si>
+  <si>
+    <t>Бурханиддинов Бехруз</t>
   </si>
 </sst>
 </file>
@@ -909,9 +774,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="D1" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D1" s="0"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -919,9 +782,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
-      <c r="W1" t="n" s="1">
-        <v>66.0</v>
-      </c>
+      <c r="W1" s="1"/>
       <c r="Y1" t="s" s="17">
         <v>2</v>
       </c>
@@ -963,9 +824,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" t="n" s="0">
-        <v>33.0</v>
-      </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="1"/>
@@ -973,9 +832,7 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
-      <c r="W3" t="n" s="1">
-        <v>98.0</v>
-      </c>
+      <c r="W3" s="1"/>
       <c r="X3" s="7"/>
       <c r="Y3" t="s" s="6">
         <v>6</v>
@@ -1004,7 +861,7 @@
       <c r="W4" s="17"/>
       <c r="X4" s="4"/>
       <c r="Y4" t="s" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="2">
         <v>98</v>
@@ -1016,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="0"/>
@@ -1030,7 +887,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="10"/>
       <c r="Y5" t="s" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z5" s="11">
         <v>18</v>
@@ -1042,7 +899,7 @@
         <v>81</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="17"/>
@@ -1058,7 +915,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="4"/>
       <c r="Y6" t="s" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" s="2">
         <v>82</v>
@@ -1070,7 +927,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="0"/>
@@ -1086,7 +943,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="17"/>
       <c r="Y7" t="s" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z7" s="11">
         <v>50</v>
@@ -1097,7 +954,7 @@
         <v>113</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="17"/>
@@ -1113,7 +970,7 @@
       <c r="W8" s="17"/>
       <c r="X8" s="11"/>
       <c r="Y8" t="s" s="22">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="21">
         <v>114</v>
@@ -1124,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="0"/>
@@ -1140,7 +997,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="10"/>
       <c r="Y9" t="s" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="11">
         <v>10</v>
@@ -1151,7 +1008,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="17"/>
@@ -1167,7 +1024,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="4"/>
       <c r="Y10" t="s" s="22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z10" s="21">
         <v>74</v>
@@ -1178,7 +1035,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="0"/>
@@ -1195,7 +1052,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="7"/>
       <c r="Y11" t="s" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z11" s="11">
         <v>42</v>
@@ -1206,7 +1063,7 @@
         <v>105</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="17"/>
@@ -1222,7 +1079,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="4"/>
       <c r="Y12" t="s" s="22">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="3">
         <v>106</v>
@@ -1233,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="0"/>
@@ -1249,7 +1106,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="17"/>
       <c r="Y13" t="s" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z13" s="4">
         <v>26</v>
@@ -1260,7 +1117,7 @@
         <v>89</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="17"/>
@@ -1276,7 +1133,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="11"/>
       <c r="Y14" t="s" s="22">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Z14" s="21">
         <v>90</v>
@@ -1287,7 +1144,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="0"/>
@@ -1303,7 +1160,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="7"/>
       <c r="Y15" t="s" s="6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z15" s="11">
         <v>58</v>
@@ -1314,7 +1171,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="17"/>
@@ -1330,7 +1187,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="4"/>
       <c r="Y16" t="s" s="22">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="21">
         <v>122</v>
@@ -1341,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="0"/>
@@ -1357,7 +1214,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="4"/>
       <c r="Y17" t="s" s="13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Z17" s="11">
         <v>6</v>
@@ -1368,7 +1225,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="17"/>
@@ -1384,7 +1241,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="11"/>
       <c r="Y18" t="s" s="22">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z18" s="3">
         <v>70</v>
@@ -1395,7 +1252,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s" s="6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="0"/>
@@ -1411,7 +1268,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="17"/>
       <c r="Y19" t="s" s="6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Z19" s="4">
         <v>38</v>
@@ -1422,7 +1279,7 @@
         <v>101</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="17"/>
@@ -1438,7 +1295,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="11"/>
       <c r="Y20" t="s" s="22">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Z20" s="21">
         <v>102</v>
@@ -1449,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="0"/>
@@ -1465,7 +1322,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="10"/>
       <c r="Y21" t="s" s="13">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Z21" s="11">
         <v>22</v>
@@ -1476,7 +1333,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="17"/>
@@ -1493,7 +1350,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="11"/>
       <c r="Y22" t="s" s="22">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="Z22" s="21">
         <v>86</v>
@@ -1504,7 +1361,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="0"/>
@@ -1521,7 +1378,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="7"/>
       <c r="Y23" t="s" s="6">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Z23" s="11">
         <v>54</v>
@@ -1532,7 +1389,7 @@
         <v>117</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="17"/>
@@ -1550,7 +1407,7 @@
       <c r="W24" s="17"/>
       <c r="X24" s="11"/>
       <c r="Y24" t="s" s="22">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="3">
         <v>118</v>
@@ -1561,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="0"/>
@@ -1578,7 +1435,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="4"/>
       <c r="Y25" t="s" s="13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Z25" s="11">
         <v>14</v>
@@ -1589,7 +1446,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="17"/>
@@ -1608,7 +1465,7 @@
       <c r="W26" s="17"/>
       <c r="X26" s="11"/>
       <c r="Y26" t="s" s="22">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="Z26" s="3">
         <v>78</v>
@@ -1619,7 +1476,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="0"/>
@@ -1641,7 +1498,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="17"/>
       <c r="Y27" t="s" s="6">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="Z27" s="11">
         <v>46</v>
@@ -1652,7 +1509,7 @@
         <v>109</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="17"/>
@@ -1670,7 +1527,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="11"/>
       <c r="Y28" t="s" s="22">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="Z28" s="3">
         <v>110</v>
@@ -1681,7 +1538,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="0"/>
@@ -1698,7 +1555,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="4"/>
       <c r="Y29" t="s" s="13">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Z29" s="4">
         <v>30</v>
@@ -1709,7 +1566,7 @@
         <v>93</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="17"/>
@@ -1726,7 +1583,7 @@
       <c r="W30" s="17"/>
       <c r="X30" s="11"/>
       <c r="Y30" t="s" s="22">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="Z30" s="21">
         <v>94</v>
@@ -1737,7 +1594,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="0"/>
@@ -1754,7 +1611,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="17"/>
       <c r="Y31" t="s" s="6">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="Z31" s="11">
         <v>62</v>
@@ -1765,7 +1622,7 @@
         <v>125</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="17"/>
@@ -1782,7 +1639,7 @@
       <c r="W32" s="17"/>
       <c r="X32" s="11"/>
       <c r="Y32" t="s" s="22">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="Z32" s="3">
         <v>126</v>
@@ -1793,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="0"/>
@@ -1810,7 +1667,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="4"/>
       <c r="Y33" t="s" s="13">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="Z33" s="11">
         <v>4</v>
@@ -1821,7 +1678,7 @@
         <v>67</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="17"/>
@@ -1838,7 +1695,7 @@
       <c r="W34" s="17"/>
       <c r="X34" s="11"/>
       <c r="Y34" t="s" s="22">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Z34" s="3">
         <v>68</v>
@@ -1849,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="0"/>
@@ -1866,7 +1723,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="7"/>
       <c r="Y35" t="s" s="6">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Z35" s="4">
         <v>36</v>
@@ -1877,7 +1734,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="17"/>
@@ -1894,7 +1751,7 @@
       <c r="W36" s="17"/>
       <c r="X36" s="11"/>
       <c r="Y36" t="s" s="22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="Z36" s="21">
         <v>100</v>
@@ -1905,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="0"/>
@@ -1922,7 +1779,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="4"/>
       <c r="Y37" t="s" s="13">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="Z37" s="11">
         <v>20</v>
@@ -1933,7 +1790,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="17"/>
@@ -1948,7 +1805,7 @@
       <c r="W38" s="17"/>
       <c r="X38" s="11"/>
       <c r="Y38" t="s" s="22">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="Z38" s="21">
         <v>84</v>
@@ -1959,7 +1816,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="0"/>
@@ -1974,7 +1831,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="7"/>
       <c r="Y39" t="s" s="6">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="Z39" s="11">
         <v>52</v>
@@ -1985,7 +1842,7 @@
         <v>115</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="17"/>
@@ -2000,7 +1857,7 @@
       <c r="W40" s="17"/>
       <c r="X40" s="4"/>
       <c r="Y40" t="s" s="22">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="Z40" s="3">
         <v>116</v>
@@ -2011,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="0"/>
@@ -2026,7 +1883,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="4"/>
       <c r="Y41" t="s" s="13">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="Z41" s="4">
         <v>12</v>
@@ -2037,7 +1894,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="17"/>
@@ -2052,7 +1909,7 @@
       <c r="W42" s="17"/>
       <c r="X42" s="11"/>
       <c r="Y42" t="s" s="22">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="Z42" s="3">
         <v>76</v>
@@ -2063,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="0"/>
@@ -2078,7 +1935,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="17"/>
       <c r="Y43" t="s" s="6">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="Z43" s="4">
         <v>44</v>
@@ -2089,7 +1946,7 @@
         <v>107</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="17"/>
@@ -2113,7 +1970,7 @@
       <c r="W44" s="17"/>
       <c r="X44" s="11"/>
       <c r="Y44" t="s" s="22">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="Z44" s="3">
         <v>108</v>
@@ -2124,7 +1981,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="0"/>
@@ -2148,7 +2005,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="10"/>
       <c r="Y45" t="s" s="13">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="Z45" s="4">
         <v>28</v>
@@ -2159,7 +2016,7 @@
         <v>91</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="17"/>
@@ -2183,7 +2040,7 @@
       <c r="W46" s="17"/>
       <c r="X46" s="4"/>
       <c r="Y46" t="s" s="22">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="Z46" s="21">
         <v>92</v>
@@ -2194,7 +2051,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="0"/>
@@ -2218,7 +2075,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="7"/>
       <c r="Y47" t="s" s="6">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="Z47" s="11">
         <v>60</v>
@@ -2229,7 +2086,7 @@
         <v>123</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="17"/>
@@ -2253,7 +2110,7 @@
       <c r="W48" s="17"/>
       <c r="X48" s="11"/>
       <c r="Y48" t="s" s="22">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="Z48" s="21">
         <v>124</v>
@@ -2264,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="0"/>
@@ -2279,7 +2136,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="4"/>
       <c r="Y49" t="s" s="13">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="Z49" s="11">
         <v>8</v>
@@ -2290,7 +2147,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="17"/>
@@ -2305,7 +2162,7 @@
       <c r="W50" s="17"/>
       <c r="X50" s="11"/>
       <c r="Y50" t="s" s="22">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="Z50" s="3">
         <v>72</v>
@@ -2316,7 +2173,7 @@
         <v>39</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="0"/>
@@ -2331,7 +2188,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="7"/>
       <c r="Y51" t="s" s="6">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="Z51" s="11">
         <v>40</v>
@@ -2342,7 +2199,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="17"/>
@@ -2357,7 +2214,7 @@
       <c r="W52" s="17"/>
       <c r="X52" s="11"/>
       <c r="Y52" t="s" s="22">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="Z52" s="3">
         <v>104</v>
@@ -2368,7 +2225,7 @@
         <v>23</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="0"/>
@@ -2383,7 +2240,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="10"/>
       <c r="Y53" t="s" s="13">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="Z53" s="4">
         <v>24</v>
@@ -2394,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="B54" t="s" s="3">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="17"/>
@@ -2409,7 +2266,7 @@
       <c r="W54" s="17"/>
       <c r="X54" s="4"/>
       <c r="Y54" t="s" s="22">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="Z54" s="3">
         <v>88</v>
@@ -2420,7 +2277,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="0"/>
@@ -2435,7 +2292,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="7"/>
       <c r="Y55" t="s" s="6">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="Z55" s="4">
         <v>56</v>
@@ -2446,7 +2303,7 @@
         <v>119</v>
       </c>
       <c r="B56" t="s" s="3">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="17"/>
@@ -2461,7 +2318,7 @@
       <c r="W56" s="17"/>
       <c r="X56" s="4"/>
       <c r="Y56" t="s" s="22">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="Z56" s="3">
         <v>120</v>
@@ -2472,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="0"/>
@@ -2487,7 +2344,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="4"/>
       <c r="Y57" t="s" s="13">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="Z57" s="4">
         <v>16</v>
@@ -2498,7 +2355,7 @@
         <v>79</v>
       </c>
       <c r="B58" t="s" s="3">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="17"/>
@@ -2513,7 +2370,7 @@
       <c r="W58" s="17"/>
       <c r="X58" s="11"/>
       <c r="Y58" t="s" s="22">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="Z58" s="21">
         <v>80</v>
@@ -2524,7 +2381,7 @@
         <v>47</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="0"/>
@@ -2539,7 +2396,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="17"/>
       <c r="Y59" t="s" s="6">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="Z59" s="11">
         <v>48</v>
@@ -2550,7 +2407,7 @@
         <v>111</v>
       </c>
       <c r="B60" t="s" s="3">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="17"/>
@@ -2565,7 +2422,7 @@
       <c r="W60" s="17"/>
       <c r="X60" s="11"/>
       <c r="Y60" t="s" s="22">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="Z60" s="3">
         <v>112</v>
@@ -2576,7 +2433,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="0"/>
@@ -2591,7 +2448,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="4"/>
       <c r="Y61" t="s" s="13">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Z61" s="11">
         <v>32</v>
@@ -2602,7 +2459,7 @@
         <v>95</v>
       </c>
       <c r="B62" t="s" s="3">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="17"/>
@@ -2616,7 +2473,7 @@
       <c r="W62" s="17"/>
       <c r="X62" s="11"/>
       <c r="Y62" t="s" s="22">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="Z62" s="3">
         <v>96</v>
@@ -2627,7 +2484,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="0"/>
@@ -2639,7 +2496,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="17"/>
       <c r="Y63" t="s" s="6">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="Z63" s="4">
         <v>64</v>
@@ -2650,7 +2507,7 @@
         <v>127</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="18"/>
@@ -2662,7 +2519,7 @@
       </c>
       <c r="X64" s="11"/>
       <c r="Y64" t="s" s="22">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="Z64" s="3">
         <v>128</v>
